--- a/ReadIn.xlsx
+++ b/ReadIn.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="750">
   <si>
     <t>S40gait01.c3d</t>
   </si>
@@ -1982,6 +1982,252 @@
   </si>
   <si>
     <t>S40</t>
+  </si>
+  <si>
+    <t>LKin1</t>
+  </si>
+  <si>
+    <t>LKin2</t>
+  </si>
+  <si>
+    <t>LKin3</t>
+  </si>
+  <si>
+    <t>RKin1</t>
+  </si>
+  <si>
+    <t>RKin2</t>
+  </si>
+  <si>
+    <t>RKin3</t>
+  </si>
+  <si>
+    <t>LKinem1</t>
+  </si>
+  <si>
+    <t>LKinem2</t>
+  </si>
+  <si>
+    <t>LKinem3</t>
+  </si>
+  <si>
+    <t>RKinem1</t>
+  </si>
+  <si>
+    <t>RKinem2</t>
+  </si>
+  <si>
+    <t>RKinem3</t>
+  </si>
+  <si>
+    <t>AffectedSide</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Filenames</t>
+  </si>
+  <si>
+    <t>RSS04gait02.c3d</t>
+  </si>
+  <si>
+    <t>RSS04gait03.c3d</t>
+  </si>
+  <si>
+    <t>RSS04gait04.c3d</t>
+  </si>
+  <si>
+    <t>RSS04gait05.c3d</t>
+  </si>
+  <si>
+    <t>RSS04gait06.c3d</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>RSS04</t>
+  </si>
+  <si>
+    <t>LKin1</t>
+  </si>
+  <si>
+    <t>LKin2</t>
+  </si>
+  <si>
+    <t>LKin3</t>
+  </si>
+  <si>
+    <t>RKin1</t>
+  </si>
+  <si>
+    <t>RKin2</t>
+  </si>
+  <si>
+    <t>RKin3</t>
+  </si>
+  <si>
+    <t>LKinem1</t>
+  </si>
+  <si>
+    <t>LKinem2</t>
+  </si>
+  <si>
+    <t>LKinem3</t>
+  </si>
+  <si>
+    <t>RKinem1</t>
+  </si>
+  <si>
+    <t>RKinem2</t>
+  </si>
+  <si>
+    <t>RKinem3</t>
+  </si>
+  <si>
+    <t>AffectedSide</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Filenames</t>
+  </si>
+  <si>
+    <t>RSS06_barefoot_gait01.c3d</t>
+  </si>
+  <si>
+    <t>RSS06_barefoot_gait02.c3d</t>
+  </si>
+  <si>
+    <t>RSS06_barefoot_gait04.c3d</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>RSS06</t>
+  </si>
+  <si>
+    <t>LKin1</t>
+  </si>
+  <si>
+    <t>LKin2</t>
+  </si>
+  <si>
+    <t>LKin3</t>
+  </si>
+  <si>
+    <t>RKin1</t>
+  </si>
+  <si>
+    <t>RKin2</t>
+  </si>
+  <si>
+    <t>RKin3</t>
+  </si>
+  <si>
+    <t>LKinem1</t>
+  </si>
+  <si>
+    <t>LKinem2</t>
+  </si>
+  <si>
+    <t>LKinem3</t>
+  </si>
+  <si>
+    <t>RKinem1</t>
+  </si>
+  <si>
+    <t>RKinem2</t>
+  </si>
+  <si>
+    <t>RKinem3</t>
+  </si>
+  <si>
+    <t>AffectedSide</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Filenames</t>
+  </si>
+  <si>
+    <t>RSS06_barefoot_gait01.c3d</t>
+  </si>
+  <si>
+    <t>RSS06_barefoot_gait02.c3d</t>
+  </si>
+  <si>
+    <t>RSS06_barefoot_gait04.c3d</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>RSS06</t>
+  </si>
+  <si>
+    <t>LKin1</t>
+  </si>
+  <si>
+    <t>LKin2</t>
+  </si>
+  <si>
+    <t>LKin3</t>
+  </si>
+  <si>
+    <t>RKin1</t>
+  </si>
+  <si>
+    <t>RKin2</t>
+  </si>
+  <si>
+    <t>RKin3</t>
+  </si>
+  <si>
+    <t>LKinem1</t>
+  </si>
+  <si>
+    <t>LKinem2</t>
+  </si>
+  <si>
+    <t>LKinem3</t>
+  </si>
+  <si>
+    <t>RKinem1</t>
+  </si>
+  <si>
+    <t>RKinem2</t>
+  </si>
+  <si>
+    <t>RKinem3</t>
+  </si>
+  <si>
+    <t>AffectedSide</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Filenames</t>
+  </si>
+  <si>
+    <t>RSS06_barefoot_gait01.c3d</t>
+  </si>
+  <si>
+    <t>RSS06_barefoot_gait02.c3d</t>
+  </si>
+  <si>
+    <t>RSS06_barefoot_gait04.c3d</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>RSS06</t>
   </si>
   <si>
     <t>LKin1</t>
@@ -2044,7 +2290,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2076,11 +2322,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -2106,6 +2356,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2428,7 +2682,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.48828125" customWidth="true"/>
+    <col min="1" max="1" width="23.7109375" customWidth="true"/>
     <col min="2" max="2" width="6.046875" customWidth="true"/>
     <col min="5" max="5" width="5.48828125" customWidth="true"/>
     <col min="8" max="8" width="5.7109375" customWidth="true"/>
@@ -2447,60 +2701,60 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>641</v>
+        <v>730</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>651</v>
+        <v>734</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>654</v>
+        <v>736</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>655</v>
+        <v>737</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>656</v>
+        <v>738</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>657</v>
+        <v>739</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>658</v>
+        <v>740</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>659</v>
+        <v>741</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>660</v>
+        <v>742</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>663</v>
+        <v>745</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>666</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>642</v>
+        <v>731</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>652</v>
+        <v>735</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -2527,36 +2781,36 @@
         <v>0</v>
       </c>
       <c r="L2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="0">
         <v>0</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>667</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>643</v>
+        <v>732</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>652</v>
+        <v>735</v>
       </c>
       <c r="C3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
       </c>
       <c r="F3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0">
         <v>0</v>
@@ -2583,18 +2837,18 @@
         <v>0</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>667</v>
+        <v>749</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>644</v>
+        <v>733</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>652</v>
+        <v>735</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -2606,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="0">
         <v>0</v>
@@ -2615,13 +2869,13 @@
         <v>1</v>
       </c>
       <c r="J4" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="0">
         <v>1</v>
@@ -2630,15 +2884,15 @@
         <v>0</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>667</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>645</v>
+        <v>672</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>652</v>
+        <v>675</v>
       </c>
       <c r="C5" s="0">
         <v>1</v>
@@ -2677,15 +2931,15 @@
         <v>0</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>667</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>646</v>
+        <v>673</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>652</v>
+        <v>675</v>
       </c>
       <c r="C6" s="0">
         <v>0</v>
@@ -2724,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>667</v>
+        <v>689</v>
       </c>
     </row>
     <row r="7">
